--- a/JP2/Module4/VaccinationSheet.xlsx
+++ b/JP2/Module4/VaccinationSheet.xlsx
@@ -375,17 +375,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="21"/>
-    <col min="2" max="2" customWidth="1" width="35"/>
-    <col min="3" max="3" customWidth="1" width="93"/>
-    <col min="4" max="4" customWidth="1" width="22"/>
+    <col min="2" max="2" customWidth="1" width="36"/>
+    <col min="3" max="3" customWidth="1" width="109"/>
+    <col min="4" max="4" customWidth="1" width="31"/>
     <col min="5" max="5" customWidth="1" width="18"/>
-    <col min="6" max="6" customWidth="1" width="12"/>
+    <col min="6" max="6" customWidth="1" width="18"/>
     <col min="7" max="7" customWidth="1" width="16"/>
   </cols>
   <sheetData>
@@ -414,13 +414,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B2" t="str">
-        <v>G.B.Pant Hospital DH SITE 2</v>
+        <v>Lala Duli Chand Polyclinic</v>
       </c>
       <c r="C2" t="str">
-        <v>J.L.N Marg Delhi Gate New Delhi 110001, Central Delhi, Delhi, 110001</v>
+        <v>Lala Duli Chand PolyclinicBara Hindu Rao, Central Delhi, Delhi, 110007</v>
       </c>
       <c r="D2" t="str">
         <v>COVISHIELDFree</v>
@@ -437,13 +437,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B3" t="str">
-        <v>G.B.Pant Hospital DH SITE 2</v>
+        <v>Lala Duli Chand Polyclinic</v>
       </c>
       <c r="C3" t="str">
-        <v>J.L.N Marg Delhi Gate New Delhi 110001, Central Delhi, Delhi, 110001</v>
+        <v>Lala Duli Chand PolyclinicBara Hindu Rao, Central Delhi, Delhi, 110007</v>
       </c>
       <c r="D3" t="str">
         <v>COVISHIELDFree</v>
@@ -455,18 +455,18 @@
         <v>#2</v>
       </c>
       <c r="G3" t="str">
-        <v>47 Slots</v>
+        <v>46 Slots</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B4" t="str">
-        <v>MCW Babar Road NDMC PHC</v>
+        <v>Vivekanand Polyclinic</v>
       </c>
       <c r="C4" t="str">
-        <v>42 Dispensary Complex 1st Floor Babar Road New Delhi 110001, New Delhi, Delhi, 110001</v>
+        <v>Vivekanand Polyclini, Central Delhi, Delhi, 110007</v>
       </c>
       <c r="D4" t="str">
         <v>COVISHIELDFree</v>
@@ -478,18 +478,18 @@
         <v>#1</v>
       </c>
       <c r="G4" t="str">
-        <v>6 Slots</v>
+        <v>23 Slots</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Fri, 29 Apr </v>
       </c>
       <c r="B5" t="str">
-        <v>MCW Babar Road NDMC PHC</v>
+        <v>Vivekanand Polyclinic</v>
       </c>
       <c r="C5" t="str">
-        <v>42 Dispensary Complex 1st Floor Babar Road New Delhi 110001, New Delhi, Delhi, 110001</v>
+        <v>Vivekanand Polyclini, Central Delhi, Delhi, 110007</v>
       </c>
       <c r="D5" t="str">
         <v>COVISHIELDFree</v>
@@ -501,64 +501,64 @@
         <v>#2</v>
       </c>
       <c r="G5" t="str">
-        <v>4 Slots</v>
+        <v>36 Slots</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B6" t="str">
-        <v>RML Site 2</v>
+        <v>DGD Sangam Park PHC</v>
       </c>
       <c r="C6" t="str">
-        <v>BKS MargCPNew Delhi, New Delhi, Delhi, 110001</v>
+        <v>Sangam Park Wazeerpur, North West Delhi, Delhi, 110007</v>
       </c>
       <c r="D6" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="E6" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="F6" t="str">
         <v>#1</v>
       </c>
       <c r="G6" t="str">
-        <v>9 Slots</v>
+        <v>49 Slots</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v xml:space="preserve"> Thu, 28 Apr </v>
+        <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B7" t="str">
-        <v>RML Site 2</v>
+        <v>DGD Sangam Park PHC</v>
       </c>
       <c r="C7" t="str">
-        <v>BKS MargCPNew Delhi, New Delhi, Delhi, 110001</v>
+        <v>Sangam Park Wazeerpur, North West Delhi, Delhi, 110007</v>
       </c>
       <c r="D7" t="str">
-        <v>COVAXINFree</v>
+        <v>COVISHIELDFree</v>
       </c>
       <c r="E7" t="str">
-        <v>15 &amp; Above</v>
+        <v>18 &amp; Above</v>
       </c>
       <c r="F7" t="str">
         <v>#2</v>
       </c>
       <c r="G7" t="str">
-        <v>7 Slots</v>
+        <v>42 Slots</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v xml:space="preserve"> Fri, 29 Apr </v>
+        <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B8" t="str">
-        <v>G.B.Pant Hospital DH SITE 2</v>
+        <v>DGD Sangam Park PHC</v>
       </c>
       <c r="C8" t="str">
-        <v>J.L.N Marg Delhi Gate New Delhi 110001, Central Delhi, Delhi, 110001</v>
+        <v>Sangam Park Wazeerpur, North West Delhi, Delhi, 110007</v>
       </c>
       <c r="D8" t="str">
         <v>COVISHIELDFree</v>
@@ -567,33 +567,33 @@
         <v>18 &amp; Above</v>
       </c>
       <c r="F8" t="str">
-        <v>#1</v>
+        <v>Precaution</v>
       </c>
       <c r="G8" t="str">
-        <v>25 Slots</v>
+        <v>16 Slots</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v xml:space="preserve"> Fri, 29 Apr </v>
+        <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B9" t="str">
-        <v>G.B.Pant Hospital DH SITE 2</v>
+        <v>Hindu Rao Hospital DH SITE 1</v>
       </c>
       <c r="C9" t="str">
-        <v>J.L.N Marg Delhi Gate New Delhi 110001, Central Delhi, Delhi, 110001</v>
+        <v>HINDU RAO HOSPITAL MALKA GANJ, Central Delhi, Delhi, 110007</v>
       </c>
       <c r="D9" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="E9" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="F9" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G9" t="str">
-        <v>48 Slots</v>
+        <v>25 Slots</v>
       </c>
     </row>
     <row r="10">
@@ -601,22 +601,22 @@
         <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B10" t="str">
-        <v>MCW Babar Road NDMC PHC</v>
+        <v>Hindu Rao Hospital DH SITE 1</v>
       </c>
       <c r="C10" t="str">
-        <v>42 Dispensary Complex 1st Floor Babar Road New Delhi 110001, New Delhi, Delhi, 110001</v>
+        <v>HINDU RAO HOSPITAL MALKA GANJ, Central Delhi, Delhi, 110007</v>
       </c>
       <c r="D10" t="str">
-        <v>COVISHIELDFree</v>
+        <v>COVAXINFree</v>
       </c>
       <c r="E10" t="str">
-        <v>18 &amp; Above</v>
+        <v>15 &amp; Above</v>
       </c>
       <c r="F10" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="G10" t="str">
-        <v>9 Slots</v>
+        <v>48 Slots</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B11" t="str">
-        <v>MCW Babar Road NDMC PHC</v>
+        <v>Lala Duli Chand Polyclinic</v>
       </c>
       <c r="C11" t="str">
-        <v>42 Dispensary Complex 1st Floor Babar Road New Delhi 110001, New Delhi, Delhi, 110001</v>
+        <v>Lala Duli Chand PolyclinicBara Hindu Rao, Central Delhi, Delhi, 110007</v>
       </c>
       <c r="D11" t="str">
         <v>COVISHIELDFree</v>
@@ -636,10 +636,10 @@
         <v>18 &amp; Above</v>
       </c>
       <c r="F11" t="str">
-        <v>#2</v>
+        <v>#1</v>
       </c>
       <c r="G11" t="str">
-        <v>7 Slots</v>
+        <v>25 Slots</v>
       </c>
     </row>
     <row r="12">
@@ -647,10 +647,10 @@
         <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B12" t="str">
-        <v>Parliament House</v>
+        <v>Lala Duli Chand Polyclinic</v>
       </c>
       <c r="C12" t="str">
-        <v>Sansad Marganpath Connaught Place New Delhi, New Delhi, Delhi, 110001</v>
+        <v>Lala Duli Chand PolyclinicBara Hindu Rao, Central Delhi, Delhi, 110007</v>
       </c>
       <c r="D12" t="str">
         <v>COVISHIELDFree</v>
@@ -659,10 +659,10 @@
         <v>18 &amp; Above</v>
       </c>
       <c r="F12" t="str">
-        <v>#1</v>
+        <v>#2</v>
       </c>
       <c r="G12" t="str">
-        <v>10 Slots</v>
+        <v>46 Slots</v>
       </c>
     </row>
     <row r="13">
@@ -670,10 +670,10 @@
         <v xml:space="preserve"> Sat, 30 Apr </v>
       </c>
       <c r="B13" t="str">
-        <v>Parliament House</v>
+        <v>Lala Duli Chand Polyclinic</v>
       </c>
       <c r="C13" t="str">
-        <v>Sansad Marganpath Connaught Place New Delhi, New Delhi, Delhi, 110001</v>
+        <v>Lala Duli Chand PolyclinicBara Hindu Rao, Central Delhi, Delhi, 110007</v>
       </c>
       <c r="D13" t="str">
         <v>COVISHIELDFree</v>
@@ -682,15 +682,751 @@
         <v>18 &amp; Above</v>
       </c>
       <c r="F13" t="str">
-        <v>#2</v>
+        <v>Precaution</v>
       </c>
       <c r="G13" t="str">
+        <v>21 Slots</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B14" t="str">
+        <v>MCW Bagh Kare Khan PHC</v>
+      </c>
+      <c r="C14" t="str">
+        <v>M And CW Centre Bagh Kare Khan Pantsnala Marg Kishan Ganj Delhi -110007, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D14" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E14" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F14" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G14" t="str">
+        <v>24 Slots</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B15" t="str">
+        <v>MCW Bagh Kare Khan PHC</v>
+      </c>
+      <c r="C15" t="str">
+        <v>M And CW Centre Bagh Kare Khan Pantsnala Marg Kishan Ganj Delhi -110007, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D15" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E15" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F15" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G15" t="str">
+        <v>47 Slots</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B16" t="str">
+        <v>MCW Bagh Kare Khan PHC</v>
+      </c>
+      <c r="C16" t="str">
+        <v>M And CW Centre Bagh Kare Khan Pantsnala Marg Kishan Ganj Delhi -110007, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D16" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E16" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="G16" t="str">
+        <v>2 Slots</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B17" t="str">
+        <v>MCW Ghanta Ghar PHC</v>
+      </c>
+      <c r="C17" t="str">
+        <v>923 GHANTA GHAR DELHI-110007, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D17" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E17" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F17" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G17" t="str">
+        <v>22 Slots</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B18" t="str">
+        <v>MCW Ghanta Ghar PHC</v>
+      </c>
+      <c r="C18" t="str">
+        <v>923 GHANTA GHAR DELHI-110007, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D18" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E18" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F18" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G18" t="str">
+        <v>45 Slots</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B19" t="str">
+        <v>MH Shakti Nagar CHC</v>
+      </c>
+      <c r="C19" t="str">
+        <v>15 -5 Shakti Nagar, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D19" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E19" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F19" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G19" t="str">
+        <v>17 Slots</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B20" t="str">
+        <v>MH Shakti Nagar CHC</v>
+      </c>
+      <c r="C20" t="str">
+        <v>15 -5 Shakti Nagar, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D20" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E20" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F20" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G20" t="str">
+        <v>39 Slots</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B21" t="str">
+        <v>NKS Super Specialty Hospital</v>
+      </c>
+      <c r="C21" t="str">
+        <v>219 220 Sanjay Nagar Gulabi Bagh Delhi 110007, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D21" t="str">
+        <v>COVISHIELD: ₹386.25Paid</v>
+      </c>
+      <c r="E21" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F21" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G21" t="str">
+        <v>10 Slots</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B22" t="str">
+        <v>NKS Super Specialty Hospital</v>
+      </c>
+      <c r="C22" t="str">
+        <v>219 220 Sanjay Nagar Gulabi Bagh Delhi 110007, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D22" t="str">
+        <v>COVISHIELD: ₹386.25Paid</v>
+      </c>
+      <c r="E22" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F22" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G22" t="str">
+        <v>6 Slots</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B23" t="str">
+        <v>Vivekanand Polyclinic</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Vivekanand Polyclini, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D23" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E23" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F23" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G23" t="str">
+        <v>25 Slots</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B24" t="str">
+        <v>Vivekanand Polyclinic</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Vivekanand Polyclini, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D24" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E24" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F24" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G24" t="str">
+        <v>47 Slots</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v xml:space="preserve"> Sat, 30 Apr </v>
+      </c>
+      <c r="B25" t="str">
+        <v>Vivekanand Polyclinic</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Vivekanand Polyclini, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D25" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E25" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="G25" t="str">
+        <v>14 Slots</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v xml:space="preserve"> Sun, 01 May </v>
+      </c>
+      <c r="B26" t="str">
+        <v>NKS Super Specialty Hospital</v>
+      </c>
+      <c r="C26" t="str">
+        <v>219 220 Sanjay Nagar Gulabi Bagh Delhi 110007, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D26" t="str">
+        <v>COVISHIELD: ₹386.25Paid</v>
+      </c>
+      <c r="E26" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F26" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G26" t="str">
+        <v>10 Slots</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v xml:space="preserve"> Sun, 01 May </v>
+      </c>
+      <c r="B27" t="str">
+        <v>NKS Super Specialty Hospital</v>
+      </c>
+      <c r="C27" t="str">
+        <v>219 220 Sanjay Nagar Gulabi Bagh Delhi 110007, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D27" t="str">
+        <v>COVISHIELD: ₹386.25Paid</v>
+      </c>
+      <c r="E27" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F27" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G27" t="str">
         <v>9 Slots</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B28" t="str">
+        <v>Hindu Rao Hospital DH SITE 1</v>
+      </c>
+      <c r="C28" t="str">
+        <v>HINDU RAO HOSPITAL MALKA GANJ, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D28" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E28" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F28" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G28" t="str">
+        <v>25 Slots</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B29" t="str">
+        <v>Hindu Rao Hospital DH SITE 1</v>
+      </c>
+      <c r="C29" t="str">
+        <v>HINDU RAO HOSPITAL MALKA GANJ, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D29" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E29" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F29" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G29" t="str">
+        <v>48 Slots</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B30" t="str">
+        <v>Hindu Rao Hospital DH SITE 1</v>
+      </c>
+      <c r="C30" t="str">
+        <v>HINDU RAO HOSPITAL MALKA GANJ, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D30" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E30" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="G30" t="str">
+        <v>17 Slots</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B31" t="str">
+        <v>Lala Duli Chand Polyclinic</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Lala Duli Chand PolyclinicBara Hindu Rao, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D31" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E31" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F31" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G31" t="str">
+        <v>25 Slots</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B32" t="str">
+        <v>Lala Duli Chand Polyclinic</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Lala Duli Chand PolyclinicBara Hindu Rao, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D32" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E32" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F32" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G32" t="str">
+        <v>49 Slots</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B33" t="str">
+        <v>Lala Duli Chand Polyclinic</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Lala Duli Chand PolyclinicBara Hindu Rao, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D33" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E33" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="G33" t="str">
+        <v>22 Slots</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B34" t="str">
+        <v>MCW Bagh Kare Khan PHC</v>
+      </c>
+      <c r="C34" t="str">
+        <v>M And CW Centre Bagh Kare Khan Pantsnala Marg Kishan Ganj Delhi -110007, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D34" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E34" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F34" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G34" t="str">
+        <v>25 Slots</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B35" t="str">
+        <v>MCW Bagh Kare Khan PHC</v>
+      </c>
+      <c r="C35" t="str">
+        <v>M And CW Centre Bagh Kare Khan Pantsnala Marg Kishan Ganj Delhi -110007, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D35" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E35" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F35" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G35" t="str">
+        <v>50 Slots</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B36" t="str">
+        <v>MCW Bagh Kare Khan PHC</v>
+      </c>
+      <c r="C36" t="str">
+        <v>M And CW Centre Bagh Kare Khan Pantsnala Marg Kishan Ganj Delhi -110007, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D36" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E36" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="G36" t="str">
+        <v>25 Slots</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B37" t="str">
+        <v>MCW Ghanta Ghar PHC</v>
+      </c>
+      <c r="C37" t="str">
+        <v>923 GHANTA GHAR DELHI-110007, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D37" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E37" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F37" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G37" t="str">
+        <v>25 Slots</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B38" t="str">
+        <v>MCW Ghanta Ghar PHC</v>
+      </c>
+      <c r="C38" t="str">
+        <v>923 GHANTA GHAR DELHI-110007, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D38" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E38" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F38" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G38" t="str">
+        <v>50 Slots</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B39" t="str">
+        <v>MCW Ghanta Ghar PHC</v>
+      </c>
+      <c r="C39" t="str">
+        <v>923 GHANTA GHAR DELHI-110007, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D39" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E39" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="G39" t="str">
+        <v>19 Slots</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B40" t="str">
+        <v>MH Shakti Nagar CHC</v>
+      </c>
+      <c r="C40" t="str">
+        <v>15 -5 Shakti Nagar, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D40" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E40" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F40" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G40" t="str">
+        <v>24 Slots</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B41" t="str">
+        <v>MH Shakti Nagar CHC</v>
+      </c>
+      <c r="C41" t="str">
+        <v>15 -5 Shakti Nagar, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D41" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E41" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F41" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G41" t="str">
+        <v>50 Slots</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B42" t="str">
+        <v>MH Shakti Nagar CHC</v>
+      </c>
+      <c r="C42" t="str">
+        <v>15 -5 Shakti Nagar, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D42" t="str">
+        <v>COVAXINFree</v>
+      </c>
+      <c r="E42" t="str">
+        <v>15 &amp; Above</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="G42" t="str">
+        <v>22 Slots</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B43" t="str">
+        <v>Vivekanand Polyclinic</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Vivekanand Polyclini, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D43" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E43" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F43" t="str">
+        <v>#1</v>
+      </c>
+      <c r="G43" t="str">
+        <v>25 Slots</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B44" t="str">
+        <v>Vivekanand Polyclinic</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Vivekanand Polyclini, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D44" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E44" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F44" t="str">
+        <v>#2</v>
+      </c>
+      <c r="G44" t="str">
+        <v>50 Slots</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v xml:space="preserve"> Mon, 02 May </v>
+      </c>
+      <c r="B45" t="str">
+        <v>Vivekanand Polyclinic</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Vivekanand Polyclini, Central Delhi, Delhi, 110007</v>
+      </c>
+      <c r="D45" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="E45" t="str">
+        <v>18 &amp; Above</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Precaution</v>
+      </c>
+      <c r="G45" t="str">
+        <v>23 Slots</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G45"/>
   </ignoredErrors>
 </worksheet>
 </file>